--- a/resultado_teste.xlsx
+++ b/resultado_teste.xlsx
@@ -2652,18 +2652,18 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>regex</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.2059778517586467</v>
+        <v>1</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
